--- a/hardware/MySoilSensorESP32 pinout.xlsx
+++ b/hardware/MySoilSensorESP32 pinout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bernd\Documents\Documents\Projects\HomeAutomation\MySoilSensorESP32\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D81341-6A9A-4EB5-99B8-3B6942B030E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453CF097-1813-407F-B469-CE5F9CBC295E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2663" yWindow="2663" windowWidth="22007" windowHeight="14671" xr2:uid="{2A1D2885-635E-42AB-A9DF-DB494BC5A1D6}"/>
+    <workbookView xWindow="20405" yWindow="136" windowWidth="26300" windowHeight="16166" xr2:uid="{2A1D2885-635E-42AB-A9DF-DB494BC5A1D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="163">
   <si>
     <t>GND</t>
   </si>
@@ -455,13 +455,73 @@
   </si>
   <si>
     <t>battery voltage</t>
+  </si>
+  <si>
+    <t>ESP32-S3 WROOM-1</t>
+  </si>
+  <si>
+    <t>io20</t>
+  </si>
+  <si>
+    <t>io1</t>
+  </si>
+  <si>
+    <t>io42</t>
+  </si>
+  <si>
+    <t>io41</t>
+  </si>
+  <si>
+    <t>io40</t>
+  </si>
+  <si>
+    <t>io39</t>
+  </si>
+  <si>
+    <t>io38</t>
+  </si>
+  <si>
+    <t>io37</t>
+  </si>
+  <si>
+    <t>io36</t>
+  </si>
+  <si>
+    <t>io3</t>
+  </si>
+  <si>
+    <t>io46</t>
+  </si>
+  <si>
+    <t>io45</t>
+  </si>
+  <si>
+    <t>io48</t>
+  </si>
+  <si>
+    <t>io47</t>
+  </si>
+  <si>
+    <t>USB D-</t>
+  </si>
+  <si>
+    <t>USB D+</t>
+  </si>
+  <si>
+    <t>was GND</t>
+  </si>
+  <si>
+    <t>was nc</t>
+  </si>
+  <si>
+    <t>pd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,6 +596,20 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -641,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -697,6 +771,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1018,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8387B766-4994-4AB3-A986-BAE15BB6A0C1}">
-  <dimension ref="A2:P26"/>
+  <dimension ref="A2:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1038,12 +1124,17 @@
     <col min="16" max="16" width="12.75" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I2" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T2" s="1"/>
+      <c r="U2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1053,8 +1144,17 @@
       <c r="J3" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1070,8 +1170,15 @@
       <c r="P4" s="18" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1087,8 +1194,15 @@
       <c r="P5" s="18" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>142</v>
       </c>
@@ -1107,8 +1221,15 @@
       <c r="J6" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>123</v>
       </c>
@@ -1127,8 +1248,15 @@
       <c r="J7" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>124</v>
       </c>
@@ -1156,8 +1284,15 @@
       <c r="P8" s="18" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>125</v>
       </c>
@@ -1176,8 +1311,18 @@
       <c r="J9" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>129</v>
       </c>
@@ -1211,8 +1356,15 @@
       <c r="P10" s="18" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>129</v>
       </c>
@@ -1246,8 +1398,15 @@
       <c r="P11" s="18" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>129</v>
       </c>
@@ -1281,8 +1440,15 @@
       <c r="P12" s="18" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>129</v>
       </c>
@@ -1316,8 +1482,15 @@
       <c r="P13" s="18" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>129</v>
       </c>
@@ -1351,8 +1524,15 @@
       <c r="P14" s="18" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>135</v>
       </c>
@@ -1389,8 +1569,18 @@
       <c r="P15" s="18" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>130</v>
       </c>
@@ -1425,8 +1615,21 @@
       <c r="O16" s="15" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="U16" s="7"/>
+      <c r="V16" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H17" s="2" t="s">
         <v>0</v>
       </c>
@@ -1445,8 +1648,18 @@
       <c r="P17" s="18" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>129</v>
       </c>
@@ -1486,8 +1699,18 @@
       <c r="P18" s="18" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E19" s="19" t="s">
         <v>44</v>
       </c>
@@ -1505,8 +1728,15 @@
       <c r="M19" s="19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U19" s="20"/>
+      <c r="V19" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E20" s="19" t="s">
         <v>44</v>
       </c>
@@ -1524,8 +1754,15 @@
       <c r="M20" s="19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" s="20"/>
+      <c r="V20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E21" s="19" t="s">
         <v>44</v>
       </c>
@@ -1543,13 +1780,28 @@
       <c r="M21" s="19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U21" s="20"/>
+      <c r="V21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H25" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H26" s="12" t="s">
         <v>75</v>
       </c>
